--- a/db/dummydata/hartrodt/hartrodt__hubs.xlsx
+++ b/db/dummydata/hartrodt/hartrodt__hubs.xlsx
@@ -223,7 +223,7 @@
     <t>BUS01</t>
   </si>
   <si>
-    <t>Korea</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t>79-9, Jungan-Dong 4GA, Jung-Gu, Busan 600 016</t>
@@ -371,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -397,6 +397,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -420,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,7 +436,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1020,7 +1024,7 @@
       <c r="F21" s="5">
         <v>129.334</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="H21" t="s">
@@ -1049,7 +1053,7 @@
       <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>75</v>
       </c>
     </row>
